--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H2">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N2">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O2">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P2">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q2">
-        <v>487.2889365056441</v>
+        <v>326.3362318050044</v>
       </c>
       <c r="R2">
-        <v>4385.600428550797</v>
+        <v>2937.02608624504</v>
       </c>
       <c r="S2">
-        <v>0.0532775423955168</v>
+        <v>0.06551979273543772</v>
       </c>
       <c r="T2">
-        <v>0.05327754239551681</v>
+        <v>0.06551979273543772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H3">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>0.249583</v>
       </c>
       <c r="N3">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O3">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P3">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q3">
-        <v>0.9601996277336668</v>
+        <v>0.7643605830386666</v>
       </c>
       <c r="R3">
-        <v>8.641796649603002</v>
+        <v>6.879245247347999</v>
       </c>
       <c r="S3">
-        <v>0.0001049830450524652</v>
+        <v>0.0001534636430004392</v>
       </c>
       <c r="T3">
-        <v>0.0001049830450524652</v>
+        <v>0.0001534636430004392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H4">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N4">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O4">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P4">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q4">
-        <v>4.035436845942667</v>
+        <v>11.12601790155022</v>
       </c>
       <c r="R4">
-        <v>36.318931613484</v>
+        <v>100.134161113952</v>
       </c>
       <c r="S4">
-        <v>0.0004412128852871069</v>
+        <v>0.002233813827071228</v>
       </c>
       <c r="T4">
-        <v>0.0004412128852871069</v>
+        <v>0.002233813827071228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H5">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N5">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O5">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P5">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q5">
-        <v>2.939240709202778</v>
+        <v>2.288406255098222</v>
       </c>
       <c r="R5">
-        <v>26.453166382825</v>
+        <v>20.595656295884</v>
       </c>
       <c r="S5">
-        <v>0.0003213607159196525</v>
+        <v>0.0004594522119079497</v>
       </c>
       <c r="T5">
-        <v>0.0003213607159196525</v>
+        <v>0.0004594522119079497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H6">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N6">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O6">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P6">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q6">
-        <v>5.858169402090779</v>
+        <v>0.6449160027875555</v>
       </c>
       <c r="R6">
-        <v>52.723524618817</v>
+        <v>5.804244025088</v>
       </c>
       <c r="S6">
-        <v>0.0006405006256003839</v>
+        <v>0.0001294822907057899</v>
       </c>
       <c r="T6">
-        <v>0.000640500625600384</v>
+        <v>0.0001294822907057899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N7">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O7">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P7">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q7">
-        <v>2247.22306457488</v>
+        <v>1890.550040640978</v>
       </c>
       <c r="R7">
-        <v>20225.00758117392</v>
+        <v>17014.9503657688</v>
       </c>
       <c r="S7">
-        <v>0.2456992415088099</v>
+        <v>0.3795730744748725</v>
       </c>
       <c r="T7">
-        <v>0.2456992415088099</v>
+        <v>0.3795730744748725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>0.249583</v>
       </c>
       <c r="N8">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O8">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P8">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q8">
-        <v>4.428138191506667</v>
+        <v>4.428138191506666</v>
       </c>
       <c r="R8">
-        <v>39.85324372356001</v>
+        <v>39.85324372355999</v>
       </c>
       <c r="S8">
-        <v>0.0004841487309828775</v>
+        <v>0.0008890545034078671</v>
       </c>
       <c r="T8">
-        <v>0.0004841487309828775</v>
+        <v>0.0008890545034078668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N9">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O9">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P9">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q9">
-        <v>18.61016345018666</v>
+        <v>64.4558940930489</v>
       </c>
       <c r="R9">
-        <v>167.49147105168</v>
+        <v>580.10304683744</v>
       </c>
       <c r="S9">
-        <v>0.002034734831689193</v>
+        <v>0.01294106020099337</v>
       </c>
       <c r="T9">
-        <v>0.002034734831689193</v>
+        <v>0.01294106020099337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N10">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O10">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P10">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q10">
-        <v>13.55485220211111</v>
+        <v>13.25732823060889</v>
       </c>
       <c r="R10">
-        <v>121.993669819</v>
+        <v>119.31595407548</v>
       </c>
       <c r="S10">
-        <v>0.001482014383584459</v>
+        <v>0.002661725279754367</v>
       </c>
       <c r="T10">
-        <v>0.00148201438358446</v>
+        <v>0.002661725279754367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N11">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O11">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P11">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q11">
-        <v>27.01603178387111</v>
+        <v>3.736164901262222</v>
       </c>
       <c r="R11">
-        <v>243.14428605484</v>
+        <v>33.62548411136</v>
       </c>
       <c r="S11">
-        <v>0.002953787108415401</v>
+        <v>0.0007501243383308687</v>
       </c>
       <c r="T11">
-        <v>0.002953787108415401</v>
+        <v>0.0007501243383308687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H12">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N12">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O12">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P12">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q12">
-        <v>2760.095241589925</v>
+        <v>1414.581309819318</v>
       </c>
       <c r="R12">
-        <v>24840.85717430932</v>
+        <v>12731.23178837386</v>
       </c>
       <c r="S12">
-        <v>0.3017739173476354</v>
+        <v>0.2840109837456437</v>
       </c>
       <c r="T12">
-        <v>0.3017739173476354</v>
+        <v>0.2840109837456437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H13">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>0.249583</v>
       </c>
       <c r="N13">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O13">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P13">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q13">
-        <v>5.438749425523667</v>
+        <v>3.313301096689666</v>
       </c>
       <c r="R13">
-        <v>48.94874482971301</v>
+        <v>29.819709870207</v>
       </c>
       <c r="S13">
-        <v>0.0005946435089924797</v>
+        <v>0.0006652243299019316</v>
       </c>
       <c r="T13">
-        <v>0.0005946435089924797</v>
+        <v>0.0006652243299019313</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H14">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N14">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O14">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P14">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q14">
-        <v>22.85746546206267</v>
+        <v>48.2283468470409</v>
       </c>
       <c r="R14">
-        <v>205.717189158564</v>
+        <v>434.0551216233681</v>
       </c>
       <c r="S14">
-        <v>0.00249911191077288</v>
+        <v>0.009682992513313881</v>
       </c>
       <c r="T14">
-        <v>0.00249911191077288</v>
+        <v>0.009682992513313879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H15">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N15">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O15">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P15">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q15">
-        <v>16.64840649478611</v>
+        <v>9.919636259297887</v>
       </c>
       <c r="R15">
-        <v>149.835658453075</v>
+        <v>89.27672633368098</v>
       </c>
       <c r="S15">
-        <v>0.001820246913883075</v>
+        <v>0.001991603899221599</v>
       </c>
       <c r="T15">
-        <v>0.001820246913883075</v>
+        <v>0.001991603899221598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H16">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N16">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O16">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P16">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q16">
-        <v>33.18176194823411</v>
+        <v>2.795540412110222</v>
       </c>
       <c r="R16">
-        <v>298.635857534107</v>
+        <v>25.159863708992</v>
       </c>
       <c r="S16">
-        <v>0.003627914767842288</v>
+        <v>0.0005612715062985938</v>
       </c>
       <c r="T16">
-        <v>0.003627914767842288</v>
+        <v>0.0005612715062985937</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H17">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N17">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O17">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P17">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q17">
-        <v>746.904891559624</v>
+        <v>368.2467364011067</v>
       </c>
       <c r="R17">
-        <v>6722.144024036616</v>
+        <v>3314.22062760996</v>
       </c>
       <c r="S17">
-        <v>0.08166254976122538</v>
+        <v>0.07393432752180194</v>
       </c>
       <c r="T17">
-        <v>0.08166254976122538</v>
+        <v>0.07393432752180194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H18">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>0.249583</v>
       </c>
       <c r="N18">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O18">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P18">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q18">
-        <v>1.471771150748667</v>
+        <v>0.8625254038779999</v>
       </c>
       <c r="R18">
-        <v>13.245940356738</v>
+        <v>7.762728634901999</v>
       </c>
       <c r="S18">
-        <v>0.0001609155144026185</v>
+        <v>0.0001731725753483118</v>
       </c>
       <c r="T18">
-        <v>0.0001609155144026186</v>
+        <v>0.0001731725753483117</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H19">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N19">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O19">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P19">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q19">
-        <v>6.185421613362666</v>
+        <v>12.55490314000533</v>
       </c>
       <c r="R19">
-        <v>55.66879452026399</v>
+        <v>112.994128260048</v>
       </c>
       <c r="S19">
-        <v>0.0006762806161848051</v>
+        <v>0.002520696666124926</v>
       </c>
       <c r="T19">
-        <v>0.0006762806161848051</v>
+        <v>0.002520696666124926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H20">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N20">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O20">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P20">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q20">
-        <v>4.505198248327777</v>
+        <v>2.582300256207333</v>
       </c>
       <c r="R20">
-        <v>40.54678423495</v>
+        <v>23.24070230586599</v>
       </c>
       <c r="S20">
-        <v>0.0004925740616988357</v>
+        <v>0.0005184584519823385</v>
       </c>
       <c r="T20">
-        <v>0.0004925740616988358</v>
+        <v>0.0005184584519823385</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H21">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N21">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O21">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P21">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q21">
-        <v>8.979262721175777</v>
+        <v>0.7277408701013333</v>
       </c>
       <c r="R21">
-        <v>80.813364490582</v>
+        <v>6.549667830911999</v>
       </c>
       <c r="S21">
-        <v>0.000981744124417208</v>
+        <v>0.0001461113610046142</v>
       </c>
       <c r="T21">
-        <v>0.0009817441244172082</v>
+        <v>0.0001461113610046142</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H22">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N22">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O22">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P22">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q22">
-        <v>2652.95903089644</v>
+        <v>764.5961428794378</v>
       </c>
       <c r="R22">
-        <v>23876.63127806796</v>
+        <v>6881.365285914941</v>
       </c>
       <c r="S22">
-        <v>0.2900602222897321</v>
+        <v>0.1535109372645752</v>
       </c>
       <c r="T22">
-        <v>0.2900602222897321</v>
+        <v>0.1535109372645752</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H23">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>0.249583</v>
       </c>
       <c r="N23">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O23">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P23">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q23">
-        <v>5.22763823067</v>
+        <v>1.790874247483667</v>
       </c>
       <c r="R23">
-        <v>47.04874407603</v>
+        <v>16.117868227353</v>
       </c>
       <c r="S23">
-        <v>0.0005715617503245314</v>
+        <v>0.0003595607783461678</v>
       </c>
       <c r="T23">
-        <v>0.0005715617503245315</v>
+        <v>0.0003595607783461678</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H24">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N24">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O24">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P24">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q24">
-        <v>21.97022715276</v>
+        <v>26.0679309988969</v>
       </c>
       <c r="R24">
-        <v>197.73204437484</v>
+        <v>234.6113789900721</v>
       </c>
       <c r="S24">
-        <v>0.002402106062501888</v>
+        <v>0.00523375975337601</v>
       </c>
       <c r="T24">
-        <v>0.002402106062501888</v>
+        <v>0.00523375975337601</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H25">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N25">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O25">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P25">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q25">
-        <v>16.00217981425</v>
+        <v>5.361668198199888</v>
       </c>
       <c r="R25">
-        <v>144.01961832825</v>
+        <v>48.255013783799</v>
       </c>
       <c r="S25">
-        <v>0.001749591976349975</v>
+        <v>0.001076482948642227</v>
       </c>
       <c r="T25">
-        <v>0.001749591976349975</v>
+        <v>0.001076482948642227</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H26">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N26">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O26">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P26">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q26">
-        <v>31.89377442313</v>
+        <v>1.511019127374222</v>
       </c>
       <c r="R26">
-        <v>287.04396980817</v>
+        <v>13.599172146368</v>
       </c>
       <c r="S26">
-        <v>0.003487093163178509</v>
+        <v>0.0003033731789364947</v>
       </c>
       <c r="T26">
-        <v>0.003487093163178509</v>
+        <v>0.0003033731789364947</v>
       </c>
     </row>
   </sheetData>
